--- a/R_analyses/Report/rnasep2_Stats_summary.xlsx
+++ b/R_analyses/Report/rnasep2_Stats_summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tsoldo01/Documents/Recherche/rnasep/R_analyses/Report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34E86D6-3D25-CD49-8678-7E52774E695E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2AE2C3-3597-BE40-96B7-500C8EA615A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="500" windowWidth="27640" windowHeight="15940" xr2:uid="{956BAD87-3458-454F-97A4-D25EAD4B8556}"/>
+    <workbookView xWindow="780" yWindow="500" windowWidth="27640" windowHeight="15820" xr2:uid="{956BAD87-3458-454F-97A4-D25EAD4B8556}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
   <si>
     <t>Metric</t>
   </si>
@@ -144,6 +144,21 @@
   </si>
   <si>
     <t>95.8</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Basic</t>
+  </si>
+  <si>
+    <t>Completeness</t>
+  </si>
+  <si>
+    <t>FullLength</t>
+  </si>
+  <si>
+    <t>ReadContent</t>
   </si>
 </sst>
 </file>
@@ -213,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -235,6 +250,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -570,20 +588,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F1873A-10D7-D443-81A4-AF70D36CD01E}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -593,8 +611,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -604,8 +625,11 @@
       <c r="C2" s="3">
         <v>325104</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -615,8 +639,11 @@
       <c r="C3" s="3">
         <v>397569</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -626,8 +653,11 @@
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -637,8 +667,11 @@
       <c r="C5" s="3">
         <v>182</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -648,8 +681,11 @@
       <c r="C6" s="3">
         <v>33040</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -659,8 +695,11 @@
       <c r="C7" s="3">
         <v>577</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -670,8 +709,11 @@
       <c r="C8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -681,8 +723,11 @@
       <c r="C9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -692,8 +737,11 @@
       <c r="C10" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -703,8 +751,11 @@
       <c r="C11" s="3">
         <v>1990</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -714,8 +765,11 @@
       <c r="C12" s="3">
         <v>31200</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
@@ -725,8 +779,11 @@
       <c r="C13" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -736,8 +793,11 @@
       <c r="C14" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
@@ -747,8 +807,11 @@
       <c r="C15" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>25</v>
       </c>
@@ -758,8 +821,11 @@
       <c r="C16" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>28</v>
       </c>
@@ -769,8 +835,11 @@
       <c r="C17" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>31</v>
       </c>
@@ -780,8 +849,11 @@
       <c r="C18" s="3">
         <v>1451</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>32</v>
       </c>
@@ -791,8 +863,11 @@
       <c r="C19" s="3">
         <v>5271</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>33</v>
       </c>
@@ -801,6 +876,9 @@
       </c>
       <c r="C20" s="7" t="s">
         <v>35</v>
+      </c>
+      <c r="D20" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/R_analyses/Report/rnasep2_Stats_summary.xlsx
+++ b/R_analyses/Report/rnasep2_Stats_summary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tsoldo01/Documents/Recherche/rnasep/R_analyses/Report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2AE2C3-3597-BE40-96B7-500C8EA615A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E102D78-4936-2A4B-93F3-96D97DCCBC51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="27640" windowHeight="15820" xr2:uid="{956BAD87-3458-454F-97A4-D25EAD4B8556}"/>
   </bookViews>
@@ -41,12 +41,6 @@
     <t>Metric</t>
   </si>
   <si>
-    <t>Assembly_Raw</t>
-  </si>
-  <si>
-    <t>Assembly_Thin</t>
-  </si>
-  <si>
     <t>Number of Trinity "genes"</t>
   </si>
   <si>
@@ -149,9 +143,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Basic</t>
-  </si>
-  <si>
     <t>Completeness</t>
   </si>
   <si>
@@ -159,6 +150,15 @@
   </si>
   <si>
     <t>ReadContent</t>
+  </si>
+  <si>
+    <t>Baseline</t>
+  </si>
+  <si>
+    <t>Raw</t>
+  </si>
+  <si>
+    <t>Thin</t>
   </si>
 </sst>
 </file>
@@ -251,7 +251,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -591,7 +591,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -606,32 +606,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>33143</v>
+        <v>331430</v>
       </c>
       <c r="C2" s="3">
         <v>325104</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3">
         <v>483699</v>
@@ -640,26 +640,26 @@
         <v>397569</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" s="3">
         <v>179</v>
@@ -668,12 +668,12 @@
         <v>182</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" s="3">
         <v>33040</v>
@@ -682,12 +682,12 @@
         <v>33040</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" s="3">
         <v>621</v>
@@ -696,12 +696,12 @@
         <v>577</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -710,12 +710,12 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
@@ -724,12 +724,12 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B10" s="3">
         <v>594</v>
@@ -738,12 +738,12 @@
         <v>600</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B11" s="3">
         <v>2005</v>
@@ -752,12 +752,12 @@
         <v>1990</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B12" s="3">
         <v>43409</v>
@@ -766,82 +766,82 @@
         <v>31200</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B18" s="3">
         <v>1467</v>
@@ -850,12 +850,12 @@
         <v>1451</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B19" s="3">
         <v>5388</v>
@@ -864,21 +864,21 @@
         <v>5271</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="D20" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
